--- a/data/raw/data_raw_experiment_1_2.xlsx
+++ b/data/raw/data_raw_experiment_1_2.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14130" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14130"/>
   </bookViews>
   <sheets>
     <sheet name="data raw" sheetId="1" r:id="rId1"/>
@@ -1495,9 +1495,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X161"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A108" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:X161"/>
+      <selection pane="bottomLeft" activeCell="N111" sqref="N111"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1508,19 +1508,19 @@
     <col min="4" max="4" width="5.85546875" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="8.28515625" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.42578125" style="2"/>
+    <col min="7" max="7" width="14.140625" style="2" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11.7109375" style="2" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="13.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.42578125" style="2"/>
+    <col min="10" max="10" width="12.28515625" style="2" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="10.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.42578125" style="2"/>
+    <col min="12" max="12" width="8.140625" style="2" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="10.5703125" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="9.42578125" bestFit="1" customWidth="1"/>
     <col min="15" max="17" width="8.7109375" style="2" bestFit="1" customWidth="1"/>
     <col min="18" max="20" width="9.85546875" style="2" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="12.28515625" style="2" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="8.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="8.85546875" style="2" customWidth="1"/>
+    <col min="23" max="23" width="8.42578125" style="2" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="8" style="2" bestFit="1" customWidth="1"/>
     <col min="25" max="16384" width="11.42578125" style="2"/>
   </cols>
@@ -13452,7 +13452,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
